--- a/wild_reports/2023_24/tr0615t010_wild_report.xlsx
+++ b/wild_reports/2023_24/tr0615t010_wild_report.xlsx
@@ -55,12 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,55 +515,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>2023/24</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Registered Trapline</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>TR0615T010</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>615</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wild_reports/2023_24/tr0615t010_wild_report.xlsx
+++ b/wild_reports/2023_24/tr0615t010_wild_report.xlsx
@@ -55,9 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +518,51 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Registered Trapline</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>TR0615T010</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
